--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11368.72311273601</v>
+        <v>2262375.899434465</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11368.72311273601</v>
+        <v>2262375.899434465</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45741.04972894372</v>
+        <v>3076678.602454779</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45741.04972894372</v>
+        <v>3076678.602454779</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495469945.479273</v>
+        <v>58754771.70998237</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13759.15308019661</v>
+        <v>1386517.160407439</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26593.17795641421</v>
+        <v>2614409.774731718</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39427.20283263178</v>
+        <v>3842302.389055999</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54307.7327363447</v>
+        <v>4922380.681621404</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68516.91111529229</v>
+        <v>6075418.656038386</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82726.08949423987</v>
+        <v>7228456.630455365</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>97210.77656005614</v>
+        <v>8392683.631134966</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>111639.2373632462</v>
+        <v>9545721.605551945</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>125634.0052042364</v>
+        <v>10662240.07779724</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>139652.1229720485</v>
+        <v>11817872.43378005</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>153660.7377095575</v>
+        <v>12971613.68673255</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>167669.2977202298</v>
+        <v>14125354.93968506</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>181677.9124577388</v>
+        <v>15279096.19263758</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>195823.3825209512</v>
+        <v>16418229.10528693</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>211038.82979241</v>
+        <v>17356385.76861627</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>169</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>160</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>142</v>
